--- a/data/trans_bre/P44-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P44-Estudios-trans_bre.xlsx
@@ -618,7 +618,7 @@
         <v>-2.141202899653803</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-7.670141532953995</v>
+        <v>-7.670141532953983</v>
       </c>
       <c r="F4" s="6" t="n">
         <v>-0.1243168046203512</v>
@@ -627,7 +627,7 @@
         <v>-0.2128495629719382</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>-0.219933438938156</v>
+        <v>-0.2199334389381556</v>
       </c>
     </row>
     <row r="5">
@@ -638,22 +638,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.722715694096127</v>
+        <v>-3.712544425049887</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-5.311620683210438</v>
+        <v>-5.305719761953177</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-12.18991250975816</v>
+        <v>-12.75273972011751</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.3976544127225956</v>
+        <v>-0.404016561214023</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.4448580092027105</v>
+        <v>-0.4515253850628745</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.3221852361595248</v>
+        <v>-0.3327968350656977</v>
       </c>
     </row>
     <row r="6">
@@ -664,22 +664,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.918310544223447</v>
+        <v>1.719269424423394</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.990809164282242</v>
+        <v>0.9383301903804989</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-2.939823444611395</v>
+        <v>-2.698638506017631</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>0.3498047375757107</v>
+        <v>0.2976678122135619</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.1240891541105448</v>
+        <v>0.1150504075818434</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>-0.09381052295647387</v>
+        <v>-0.08664733707982747</v>
       </c>
     </row>
     <row r="7">
@@ -700,7 +700,7 @@
         <v>-5.981904397388346</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>-3.656022098370043</v>
+        <v>-3.656022098370038</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>-0.3133330385509289</v>
@@ -709,7 +709,7 @@
         <v>-0.5123195693850883</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.1075958451729023</v>
+        <v>-0.1075958451729021</v>
       </c>
     </row>
     <row r="8">
@@ -720,22 +720,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-8.636507295685226</v>
+        <v>-8.220429820182826</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-9.324575976033648</v>
+        <v>-8.879226892478542</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-7.817624235955603</v>
+        <v>-7.653889751365124</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.5953816331682701</v>
+        <v>-0.5769428573099411</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.6879774362633309</v>
+        <v>-0.6653780153875024</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.2114083966438396</v>
+        <v>-0.2078787126946858</v>
       </c>
     </row>
     <row r="9">
@@ -746,22 +746,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.5463915040280577</v>
+        <v>0.8079903974275602</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-2.927885261124096</v>
+        <v>-3.155786945386522</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.02459601469690572</v>
+        <v>-0.142086022753195</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.07885635750009344</v>
+        <v>0.1434311113233685</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.2747252689209841</v>
+        <v>-0.2943194304527318</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.002247084966822733</v>
+        <v>-0.0009078317842942394</v>
       </c>
     </row>
     <row r="10">
@@ -782,7 +782,7 @@
         <v>-4.557426154388905</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-4.785322904050493</v>
+        <v>-4.785322904050488</v>
       </c>
       <c r="F10" s="6" t="n">
         <v>0.3348536322194239</v>
@@ -791,7 +791,7 @@
         <v>-0.2557325881085128</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>-0.1089159371142012</v>
+        <v>-0.1089159371142011</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-6.143849279019912</v>
+        <v>-8.256934418037238</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-14.12367323892468</v>
+        <v>-12.84810826229708</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-11.90364948603864</v>
+        <v>-11.93511083404726</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.374374966683458</v>
+        <v>-0.4334282594968009</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.6149970281058542</v>
+        <v>-0.5679123661610428</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.245243261491779</v>
+        <v>-0.252434954168708</v>
       </c>
     </row>
     <row r="12">
@@ -828,22 +828,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>19.80475328058213</v>
+        <v>19.14032997969494</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.36164719766776</v>
+        <v>5.827371677850852</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.498922338184824</v>
+        <v>1.839362059538748</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>2.155662528722254</v>
+        <v>1.773478853148964</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.4034497225680719</v>
+        <v>0.5221954123308775</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.06090891658646076</v>
+        <v>0.04670069228210827</v>
       </c>
     </row>
     <row r="13">
@@ -884,22 +884,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-4.419664454187928</v>
+        <v>-4.610971832754553</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-6.723494118883212</v>
+        <v>-6.635352003827977</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-8.576056381129796</v>
+        <v>-8.525422408437096</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.4030861234556005</v>
+        <v>-0.4129744906400752</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.5151039049209318</v>
+        <v>-0.5075055026132627</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2270303624853486</v>
+        <v>-0.2253967018731403</v>
       </c>
     </row>
     <row r="15">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3084556815947715</v>
+        <v>0.07362297690433535</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-2.167355842295485</v>
+        <v>-2.279635485713081</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>-2.682749843909686</v>
+        <v>-3.005735220880663</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.04188025773465779</v>
+        <v>0.01020358694441675</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.2083946787985324</v>
+        <v>-0.2078321938897036</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.07709686320593499</v>
+        <v>-0.08847400607413021</v>
       </c>
     </row>
     <row r="16">
